--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H2">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I2">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J2">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>173.08623179952</v>
+        <v>53.371135350036</v>
       </c>
       <c r="R2">
-        <v>1557.77608619568</v>
+        <v>480.3402181503239</v>
       </c>
       <c r="S2">
-        <v>0.012941591322916</v>
+        <v>0.004670078830026565</v>
       </c>
       <c r="T2">
-        <v>0.01525100631426895</v>
+        <v>0.005334486840940091</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H3">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I3">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J3">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>185.2271988858</v>
+        <v>64.74565218491999</v>
       </c>
       <c r="R3">
-        <v>1667.0447899722</v>
+        <v>582.7108696642799</v>
       </c>
       <c r="S3">
-        <v>0.01384936678640636</v>
+        <v>0.005665371321445087</v>
       </c>
       <c r="T3">
-        <v>0.01632077346887807</v>
+        <v>0.006471378720413652</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H4">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I4">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J4">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>93.00862778183999</v>
+        <v>36.552129196464</v>
       </c>
       <c r="R4">
-        <v>837.0776500365599</v>
+        <v>328.969162768176</v>
       </c>
       <c r="S4">
-        <v>0.006954219510954322</v>
+        <v>0.003198382864318949</v>
       </c>
       <c r="T4">
-        <v>0.008195193545060849</v>
+        <v>0.003653413983570949</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H5">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I5">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J5">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>211.95263815083</v>
+        <v>39.86285167935</v>
       </c>
       <c r="R5">
-        <v>1271.71582890498</v>
+        <v>239.1771100761</v>
       </c>
       <c r="S5">
-        <v>0.01584761765418214</v>
+        <v>0.003488077563111009</v>
       </c>
       <c r="T5">
-        <v>0.01245040690279882</v>
+        <v>0.002656215528377311</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H6">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I6">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J6">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>106.26296879862</v>
+        <v>39.32321130612</v>
       </c>
       <c r="R6">
-        <v>956.3667191875801</v>
+        <v>353.90890175508</v>
       </c>
       <c r="S6">
-        <v>0.007945241517213087</v>
+        <v>0.003440857973976909</v>
       </c>
       <c r="T6">
-        <v>0.009363062510932843</v>
+        <v>0.003930385813984043</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H7">
         <v>37.45258</v>
       </c>
       <c r="I7">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J7">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>1725.553783657831</v>
+        <v>1522.18195056554</v>
       </c>
       <c r="R7">
-        <v>15529.98405292048</v>
+        <v>13699.63755508986</v>
       </c>
       <c r="S7">
-        <v>0.1290189961479824</v>
+        <v>0.1331939007135975</v>
       </c>
       <c r="T7">
-        <v>0.1520423165758077</v>
+        <v>0.1521432799124989</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H8">
         <v>37.45258</v>
       </c>
       <c r="I8">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J8">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
-        <v>1846.591092490467</v>
+        <v>1846.591092490466</v>
       </c>
       <c r="R8">
         <v>16619.3198324142</v>
       </c>
       <c r="S8">
-        <v>0.1380689094163692</v>
+        <v>0.1615803357413407</v>
       </c>
       <c r="T8">
-        <v>0.1627071784893003</v>
+        <v>0.1845682281046123</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H9">
         <v>37.45258</v>
       </c>
       <c r="I9">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J9">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>927.2337141620179</v>
+        <v>1042.492181451404</v>
       </c>
       <c r="R9">
-        <v>8345.10342745816</v>
+        <v>9382.429633062638</v>
       </c>
       <c r="S9">
-        <v>0.06932891001644431</v>
+        <v>0.09122010680743618</v>
       </c>
       <c r="T9">
-        <v>0.08170058983008723</v>
+        <v>0.1041979112353977</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H10">
         <v>37.45258</v>
       </c>
       <c r="I10">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J10">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>2113.025819067131</v>
+        <v>1136.916292419417</v>
       </c>
       <c r="R10">
-        <v>12678.15491440278</v>
+        <v>6821.4977545165</v>
       </c>
       <c r="S10">
-        <v>0.1579901319754335</v>
+        <v>0.09948240137515885</v>
       </c>
       <c r="T10">
-        <v>0.1241222165151074</v>
+        <v>0.07575711679337778</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H11">
         <v>37.45258</v>
       </c>
       <c r="I11">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J11">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>1059.370615252376</v>
+        <v>1121.5253731418</v>
       </c>
       <c r="R11">
-        <v>9534.335537271383</v>
+        <v>10093.7283582762</v>
       </c>
       <c r="S11">
-        <v>0.07920873555085595</v>
+        <v>0.09813566580692255</v>
       </c>
       <c r="T11">
-        <v>0.0933434610852148</v>
+        <v>0.1120973407360974</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H12">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I12">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J12">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>194.2790416424809</v>
+        <v>219.081842735591</v>
       </c>
       <c r="R12">
-        <v>1748.511374782328</v>
+        <v>1971.736584620319</v>
       </c>
       <c r="S12">
-        <v>0.01452616960577761</v>
+        <v>0.01917009014502823</v>
       </c>
       <c r="T12">
-        <v>0.0171183511248398</v>
+        <v>0.02189740202259213</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H13">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I13">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J13">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>207.9065579712633</v>
+        <v>265.7728132774366</v>
       </c>
       <c r="R13">
-        <v>1871.15902174137</v>
+        <v>2391.95531949693</v>
       </c>
       <c r="S13">
-        <v>0.01554509378732511</v>
+        <v>0.02325564147630078</v>
       </c>
       <c r="T13">
-        <v>0.01831910138335135</v>
+        <v>0.02656420115123441</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H14">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I14">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J14">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>104.3966748947862</v>
+        <v>150.0419237430618</v>
       </c>
       <c r="R14">
-        <v>939.5700740530758</v>
+        <v>1350.377313687556</v>
       </c>
       <c r="S14">
-        <v>0.007805699436131548</v>
+        <v>0.01312896207085204</v>
       </c>
       <c r="T14">
-        <v>0.009198619274658461</v>
+        <v>0.01499680796646496</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H15">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I15">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J15">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>237.9042803429555</v>
+        <v>163.6320259130792</v>
       </c>
       <c r="R15">
-        <v>1427.425682057733</v>
+        <v>981.792155478475</v>
       </c>
       <c r="S15">
-        <v>0.01778801201089818</v>
+        <v>0.01431812261663858</v>
       </c>
       <c r="T15">
-        <v>0.01397484419174576</v>
+        <v>0.01090343289201548</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H16">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I16">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J16">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>119.2738875047715</v>
+        <v>161.41686960047</v>
       </c>
       <c r="R16">
-        <v>1073.464987542943</v>
+        <v>1452.75182640423</v>
       </c>
       <c r="S16">
-        <v>0.008918062930447885</v>
+        <v>0.01412429210258134</v>
       </c>
       <c r="T16">
-        <v>0.0105094830048043</v>
+        <v>0.01613374272707633</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H17">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I17">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J17">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>592.4147400074454</v>
+        <v>561.885183363612</v>
       </c>
       <c r="R17">
-        <v>3554.488440044672</v>
+        <v>3371.311100181672</v>
       </c>
       <c r="S17">
-        <v>0.04429462343214034</v>
+        <v>0.04916605357038239</v>
       </c>
       <c r="T17">
-        <v>0.0347993053196143</v>
+        <v>0.03744057653528853</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H18">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I18">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J18">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>633.9691015824801</v>
+        <v>681.6347902536399</v>
       </c>
       <c r="R18">
-        <v>3803.814609494881</v>
+        <v>4089.80874152184</v>
       </c>
       <c r="S18">
-        <v>0.04740162714698043</v>
+        <v>0.05964437861206141</v>
       </c>
       <c r="T18">
-        <v>0.03724026908731716</v>
+        <v>0.04541995462637339</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H19">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I19">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J19">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>318.3365971572373</v>
+        <v>384.8166182185547</v>
       </c>
       <c r="R19">
-        <v>1910.019582943424</v>
+        <v>2308.899709311328</v>
       </c>
       <c r="S19">
-        <v>0.02380190556293648</v>
+        <v>0.03367220746567227</v>
       </c>
       <c r="T19">
-        <v>0.01869955571791232</v>
+        <v>0.02564181521963897</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H20">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I20">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J20">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>725.4411036543481</v>
+        <v>419.6715242864501</v>
       </c>
       <c r="R20">
-        <v>2901.764414617393</v>
+        <v>1678.6860971458</v>
       </c>
       <c r="S20">
-        <v>0.05424095374156589</v>
+        <v>0.03672207998351693</v>
       </c>
       <c r="T20">
-        <v>0.02840897854448879</v>
+        <v>0.01864288801336822</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H21">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I21">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J21">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>363.7016554047387</v>
+        <v>413.99025241404</v>
       </c>
       <c r="R21">
-        <v>2182.209932428433</v>
+        <v>2483.94151448424</v>
       </c>
       <c r="S21">
-        <v>0.02719383360987356</v>
+        <v>0.03622495757221807</v>
       </c>
       <c r="T21">
-        <v>0.0213643653625492</v>
+        <v>0.02758576696680888</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H22">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I22">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J22">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N22">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O22">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P22">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q22">
-        <v>322.8715823396035</v>
+        <v>251.686847474494</v>
       </c>
       <c r="R22">
-        <v>2905.844241056432</v>
+        <v>2265.181627270446</v>
       </c>
       <c r="S22">
-        <v>0.024140984669781</v>
+        <v>0.02202309189186035</v>
       </c>
       <c r="T22">
-        <v>0.02844892103643888</v>
+        <v>0.02515629782062484</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H23">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I23">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J23">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P23">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q23">
-        <v>345.5190986297533</v>
+        <v>305.3266335675133</v>
       </c>
       <c r="R23">
-        <v>3109.67188766778</v>
+        <v>2747.93970210762</v>
       </c>
       <c r="S23">
-        <v>0.0258343307970783</v>
+        <v>0.02671667818784673</v>
       </c>
       <c r="T23">
-        <v>0.03044444321259698</v>
+        <v>0.03051763651404764</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H24">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I24">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J24">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N24">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O24">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P24">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q24">
-        <v>173.4964272487049</v>
+        <v>172.3720154274782</v>
       </c>
       <c r="R24">
-        <v>1561.467845238344</v>
+        <v>1551.348138847304</v>
       </c>
       <c r="S24">
-        <v>0.01297226147969669</v>
+        <v>0.01508288880979062</v>
       </c>
       <c r="T24">
-        <v>0.01528714953213534</v>
+        <v>0.01722871814537078</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H25">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I25">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J25">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N25">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O25">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P25">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q25">
-        <v>395.372196559667</v>
+        <v>187.9846738263583</v>
       </c>
       <c r="R25">
-        <v>2372.233179358002</v>
+        <v>1127.90804295815</v>
       </c>
       <c r="S25">
-        <v>0.02956182785379128</v>
+        <v>0.01644902698524537</v>
       </c>
       <c r="T25">
-        <v>0.02322473911232104</v>
+        <v>0.01252614373229053</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H26">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I26">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J26">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N26">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O26">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P26">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q26">
-        <v>198.2208089194158</v>
+        <v>185.43984536398</v>
       </c>
       <c r="R26">
-        <v>1783.987280274742</v>
+        <v>1668.95860827582</v>
       </c>
       <c r="S26">
-        <v>0.01482089403681857</v>
+        <v>0.0162263495126704</v>
       </c>
       <c r="T26">
-        <v>0.01746566885776927</v>
+        <v>0.01853485799753461</v>
       </c>
     </row>
   </sheetData>
